--- a/datas/SX5E_Puts_Dec22.xlsx
+++ b/datas/SX5E_Puts_Dec22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj200901\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj200901\Desktop\Data PI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1308C0-5638-481A-9440-33AB8B0D204C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C7F82E-6F18-4C63-BFDD-82B5A79047BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Strike</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Volm</t>
   </si>
   <si>
-    <t>16-Dec-22 (77d); CSize 10</t>
+    <t>16-Dec-22 (70d); CSize 10</t>
   </si>
   <si>
     <t>SX5E 12/16/22 P1700</t>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>SX5E 12/16/22 P4950</t>
+  </si>
+  <si>
+    <t>SX5E 12/16/22 P5000</t>
+  </si>
+  <si>
+    <t>SX5E 12/16/22 P5050</t>
   </si>
 </sst>
 </file>
@@ -902,49 +908,49 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="42" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="blp_column_header" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calcul" xfId="27" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="36" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="35" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="37" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="34" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="29" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="40" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="31" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="32" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="33" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="34" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="28" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,7 +966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1280,11 +1286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="17" bestFit="1" customWidth="1"/>
@@ -1333,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2.9000005722045898</v>
+        <v>2.1000003814697301</v>
       </c>
       <c r="D3">
-        <v>3.1999998092651398</v>
+        <v>2.3000001907348602</v>
       </c>
       <c r="E3">
-        <v>3.1999998092651398</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>64.973007202148395</v>
+        <v>66.714385986328097</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1356,19 +1364,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3.1999998092651398</v>
+        <v>2.4000005722045898</v>
       </c>
       <c r="D4">
-        <v>3.5999994277954102</v>
+        <v>2.5999994277954102</v>
       </c>
       <c r="E4">
-        <v>3.6000003814697301</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>63.3351860046387</v>
+        <v>65.177558898925795</v>
       </c>
       <c r="G4">
-        <v>1728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,19 +1387,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>3.6000003814697301</v>
+        <v>2.6999998092651398</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2.9000005722045898</v>
       </c>
       <c r="E5">
-        <v>3.9000005722045898</v>
+        <v>2.8000001907348602</v>
       </c>
       <c r="F5">
-        <v>61.757354736328097</v>
+        <v>63.558509826660199</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,19 +1410,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4.1000003814697301</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4.4000005722045898</v>
+        <v>3.3000001907348602</v>
       </c>
       <c r="E6">
-        <v>4.3000001907348597</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>60.221519470214801</v>
+        <v>62.014068603515597</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,19 +1433,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>4.6999998092651403</v>
+        <v>3.29999923706055</v>
       </c>
       <c r="D7">
-        <v>4.9000005722045898</v>
+        <v>3.6000003814697301</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F7">
-        <v>58.807205200195298</v>
+        <v>60.275199890136697</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,19 +1456,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>5.1000003814697301</v>
+        <v>3.6999998092651398</v>
       </c>
       <c r="D8">
-        <v>5.4000005722045898</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>5.3000001907348597</v>
+        <v>3.9000005722045898</v>
       </c>
       <c r="F8">
-        <v>57.136341094970703</v>
+        <v>58.725582122802699</v>
       </c>
       <c r="G8">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1471,19 +1479,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>5.6999998092651403</v>
+        <v>4.1999998092651403</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>4.4000005722045898</v>
       </c>
       <c r="E9">
-        <v>5.9000005722045898</v>
+        <v>4.3000001907348597</v>
       </c>
       <c r="F9">
-        <v>55.658714294433601</v>
+        <v>57.215286254882798</v>
       </c>
       <c r="G9">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,19 +1502,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>6.3000001907348597</v>
+        <v>4.6999998092651403</v>
       </c>
       <c r="D10">
-        <v>6.6999998092651403</v>
+        <v>4.9000005722045898</v>
       </c>
       <c r="E10">
-        <v>6.9000005722045898</v>
+        <v>4.8000001907348597</v>
       </c>
       <c r="F10">
-        <v>54.179847717285199</v>
+        <v>55.723537445068402</v>
       </c>
       <c r="G10">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,19 +1525,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>7.1000003814697301</v>
+        <v>5.3000001907348597</v>
       </c>
       <c r="D11">
-        <v>7.4000005722045898</v>
+        <v>5.5</v>
       </c>
       <c r="E11">
-        <v>7.3000001907348597</v>
+        <v>5.4000005722045898</v>
       </c>
       <c r="F11">
-        <v>52.7599906921387</v>
+        <v>54.320266723632798</v>
       </c>
       <c r="G11">
-        <v>271</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,19 +1548,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D12">
-        <v>7.8000001907348597</v>
+        <v>5.8000001907348597</v>
       </c>
       <c r="E12">
-        <v>8.1000003814697301</v>
+        <v>5.6000003814697301</v>
       </c>
       <c r="F12">
-        <v>52.050376892089801</v>
+        <v>53.512294769287102</v>
       </c>
       <c r="G12">
-        <v>1052</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,19 +1571,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>7.9000005722045898</v>
+        <v>5.8999996185302699</v>
       </c>
       <c r="D13">
-        <v>8.1999998092651403</v>
+        <v>6.1000003814697301</v>
       </c>
       <c r="E13">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>51.318042755127003</v>
+        <v>52.835739135742202</v>
       </c>
       <c r="G13">
-        <v>2491</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,19 +1594,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>8.8000001907348597</v>
+        <v>6.6999998092651403</v>
       </c>
       <c r="D14">
-        <v>9.1000003814697301</v>
+        <v>6.8000001907348597</v>
       </c>
       <c r="E14">
-        <v>9.5</v>
+        <v>6.6999998092651403</v>
       </c>
       <c r="F14">
-        <v>49.907878875732401</v>
+        <v>51.473972320556598</v>
       </c>
       <c r="G14">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,19 +1617,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>9.8000001907348597</v>
+        <v>7.4000005722045898</v>
       </c>
       <c r="D15">
-        <v>10.199999809265099</v>
+        <v>7.6000003814697301</v>
       </c>
       <c r="E15">
-        <v>10.1000003814697</v>
+        <v>7.5</v>
       </c>
       <c r="F15">
-        <v>48.558052062988303</v>
+        <v>50.025245666503899</v>
       </c>
       <c r="G15">
-        <v>1317</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,19 +1640,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>9.6999998092651403</v>
+        <v>7.8000001907348597</v>
       </c>
       <c r="D16">
-        <v>11.6000003814697</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>47.960380554199197</v>
+        <v>49.299583435058601</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,19 +1663,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>8.1999998092651403</v>
       </c>
       <c r="D17">
-        <v>11.300000190734901</v>
+        <v>8.3999996185302699</v>
       </c>
       <c r="E17">
-        <v>11.6000003814697</v>
+        <v>8.3000001907348597</v>
       </c>
       <c r="F17">
-        <v>47.203136444091797</v>
+        <v>48.553863525390597</v>
       </c>
       <c r="G17">
-        <v>247</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1678,19 +1686,19 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>10.8999996185303</v>
+        <v>8.6999998092651403</v>
       </c>
       <c r="D18">
-        <v>12.800000190734901</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>12.699999809265099</v>
+        <v>8.8000001907348597</v>
       </c>
       <c r="F18">
-        <v>46.590950012207003</v>
+        <v>47.941066741943402</v>
       </c>
       <c r="G18">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,19 +1709,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>12.300000190734901</v>
+        <v>9.1999998092651403</v>
       </c>
       <c r="D19">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="E19">
-        <v>13.199999809265099</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>45.836154937744098</v>
+        <v>47.250694274902301</v>
       </c>
       <c r="G19">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,19 +1732,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>9.8000001907348597</v>
       </c>
       <c r="D20">
-        <v>13.300000190734901</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>13.300000190734901</v>
+        <v>9.8000001907348597</v>
       </c>
       <c r="F20">
-        <v>45.207809448242202</v>
+        <v>46.581069946289098</v>
       </c>
       <c r="G20">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,19 +1755,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>13.699999809265099</v>
+        <v>10.300000190734901</v>
       </c>
       <c r="D21">
-        <v>14.1000003814697</v>
+        <v>10.6000003814697</v>
       </c>
       <c r="E21">
-        <v>14.6000003814697</v>
+        <v>10.3999996185303</v>
       </c>
       <c r="F21">
-        <v>44.5532836914063</v>
+        <v>45.888893127441399</v>
       </c>
       <c r="G21">
-        <v>1351</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,19 +1778,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>14.6000003814697</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>11.199999809265099</v>
       </c>
       <c r="E22">
-        <v>15.300000190734901</v>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>43.969982147216797</v>
+        <v>45.253993988037102</v>
       </c>
       <c r="G22">
-        <v>162</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,19 +1801,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>15.5</v>
+        <v>11.6000003814697</v>
       </c>
       <c r="D23">
-        <v>15.8999996185303</v>
+        <v>11.8999996185303</v>
       </c>
       <c r="E23">
-        <v>15.800000190734901</v>
+        <v>11.699999809265099</v>
       </c>
       <c r="F23">
-        <v>43.352458953857401</v>
+        <v>44.590579986572301</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,19 +1824,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16.3999938964844</v>
+        <v>12.300000190734901</v>
       </c>
       <c r="D24">
-        <v>16.8999938964844</v>
+        <v>12.6000003814697</v>
       </c>
       <c r="E24">
-        <v>17.300003051757798</v>
+        <v>12.6000003814697</v>
       </c>
       <c r="F24">
-        <v>42.734718322753899</v>
+        <v>43.9362983703613</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,19 +1847,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>17.3999938964844</v>
+        <v>13.1000003814697</v>
       </c>
       <c r="D25">
-        <v>17.8999938964844</v>
+        <v>13.3999996185303</v>
       </c>
       <c r="E25">
-        <v>18.5</v>
+        <v>13.1000003814697</v>
       </c>
       <c r="F25">
-        <v>42.112560272216797</v>
+        <v>43.325416564941399</v>
       </c>
       <c r="G25">
-        <v>4299</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,19 +1870,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>18.5</v>
+        <v>13.8999996185303</v>
       </c>
       <c r="D26">
-        <v>19.1000061035156</v>
+        <v>14.199999809265099</v>
       </c>
       <c r="E26">
-        <v>18.8999938964844</v>
+        <v>13.8999996185303</v>
       </c>
       <c r="F26">
-        <v>41.542995452880902</v>
+        <v>42.682113647460902</v>
       </c>
       <c r="G26">
-        <v>1156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,19 +1893,19 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>19.699996948242202</v>
+        <v>14.800000190734901</v>
       </c>
       <c r="D27">
-        <v>20.300003051757798</v>
+        <v>15.1000003814697</v>
       </c>
       <c r="E27">
-        <v>20.800003051757798</v>
+        <v>14.8999996185303</v>
       </c>
       <c r="F27">
-        <v>40.961719512939503</v>
+        <v>42.071926116943402</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,19 +1916,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>15.699999809265099</v>
       </c>
       <c r="D28">
-        <v>21.6000061035156</v>
+        <v>16.099990844726602</v>
       </c>
       <c r="E28">
-        <v>22.8999938964844</v>
+        <v>15.800000190734901</v>
       </c>
       <c r="F28">
-        <v>40.394546508789098</v>
+        <v>41.459659576416001</v>
       </c>
       <c r="G28">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,19 +1939,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>22.3999938964844</v>
+        <v>16.699996948242202</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>17.1000061035156</v>
       </c>
       <c r="E29">
-        <v>24.199996948242202</v>
+        <v>16.8999938964844</v>
       </c>
       <c r="F29">
-        <v>39.831878662109403</v>
+        <v>40.839786529541001</v>
       </c>
       <c r="G29">
-        <v>344</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,19 +1962,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>23.8999938964844</v>
+        <v>17.800003051757798</v>
       </c>
       <c r="D30">
-        <v>24.5</v>
+        <v>18.199996948242202</v>
       </c>
       <c r="E30">
-        <v>24.3999938964844</v>
+        <v>17.8999938964844</v>
       </c>
       <c r="F30">
-        <v>39.277969360351598</v>
+        <v>40.242885589599602</v>
       </c>
       <c r="G30">
-        <v>37</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,19 +1985,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>25.5</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>26.1000061035156</v>
+        <v>19.3999938964844</v>
       </c>
       <c r="E31">
-        <v>27.5</v>
+        <v>19.199996948242202</v>
       </c>
       <c r="F31">
-        <v>38.724746704101598</v>
+        <v>39.660579681396499</v>
       </c>
       <c r="G31">
-        <v>335</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,19 +2008,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>27.199996948242202</v>
+        <v>20.2999877929688</v>
       </c>
       <c r="D32">
-        <v>27.8999938964844</v>
+        <v>20.800003051757798</v>
       </c>
       <c r="E32">
-        <v>28.5</v>
+        <v>20.3999938964844</v>
       </c>
       <c r="F32">
-        <v>38.190254211425803</v>
+        <v>39.111061096191399</v>
       </c>
       <c r="G32">
-        <v>539</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,19 +2031,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>29.1000061035156</v>
+        <v>21.699996948242202</v>
       </c>
       <c r="D33">
-        <v>29.699996948242202</v>
+        <v>22.199996948242202</v>
       </c>
       <c r="E33">
-        <v>29.300003051757798</v>
+        <v>21.6000061035156</v>
       </c>
       <c r="F33">
-        <v>37.6523246765137</v>
+        <v>38.546077728271499</v>
       </c>
       <c r="G33">
-        <v>5449</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,19 +2054,19 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>31.1000061035156</v>
+        <v>23.1000061035156</v>
       </c>
       <c r="D34">
-        <v>31.7999877929688</v>
+        <v>23.5</v>
       </c>
       <c r="E34">
-        <v>31.8999938964844</v>
+        <v>23</v>
       </c>
       <c r="F34">
-        <v>37.137908935546903</v>
+        <v>37.9164009094238</v>
       </c>
       <c r="G34">
-        <v>258</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2069,19 +2077,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>33.300003051757798</v>
+        <v>24.7999877929688</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>25.199996948242202</v>
       </c>
       <c r="E35">
-        <v>33.900009155273402</v>
+        <v>24.6000061035156</v>
       </c>
       <c r="F35">
-        <v>36.631687164306598</v>
+        <v>37.396324157714801</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>11322</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,19 +2100,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>35.800003051757798</v>
+        <v>26.5</v>
       </c>
       <c r="D36">
-        <v>36.2999877929688</v>
+        <v>26.8999938964844</v>
       </c>
       <c r="E36">
-        <v>36.5</v>
+        <v>26.300003051757798</v>
       </c>
       <c r="F36">
-        <v>36.1419067382813</v>
+        <v>36.829605102539098</v>
       </c>
       <c r="G36">
-        <v>133</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,19 +2123,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>38.300003051757798</v>
+        <v>28.6000061035156</v>
       </c>
       <c r="D37">
-        <v>38.899993896484403</v>
+        <v>28.800003051757798</v>
       </c>
       <c r="E37">
-        <v>40.5</v>
+        <v>28.6000061035156</v>
       </c>
       <c r="F37">
-        <v>35.646533966064503</v>
+        <v>36.3294067382813</v>
       </c>
       <c r="G37">
-        <v>6474</v>
+        <v>30112</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,19 +2146,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>41.100006103515597</v>
+        <v>30.5</v>
       </c>
       <c r="D38">
-        <v>41.699996948242202</v>
+        <v>30.8999938964844</v>
       </c>
       <c r="E38">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>35.179004669189503</v>
+        <v>35.781406402587898</v>
       </c>
       <c r="G38">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2161,19 +2169,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>44</v>
+        <v>32.900009155273402</v>
       </c>
       <c r="D39">
-        <v>44.699996948242202</v>
+        <v>33.199996948242202</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>32.900009155273402</v>
       </c>
       <c r="F39">
-        <v>34.693851470947301</v>
+        <v>35.303928375244098</v>
       </c>
       <c r="G39">
-        <v>268</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,19 +2192,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>47.199996948242202</v>
+        <v>35.199996948242202</v>
       </c>
       <c r="D40">
-        <v>47.899993896484403</v>
+        <v>35.600006103515597</v>
       </c>
       <c r="E40">
-        <v>54.300003051757798</v>
+        <v>35.100006103515597</v>
       </c>
       <c r="F40">
-        <v>34.223255157470703</v>
+        <v>34.771728515625</v>
       </c>
       <c r="G40">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,19 +2215,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>50.600006103515597</v>
+        <v>37.900009155273402</v>
       </c>
       <c r="D41">
-        <v>51.400009155273402</v>
+        <v>38.300003051757798</v>
       </c>
       <c r="E41">
-        <v>53.100006103515597</v>
+        <v>37.600006103515597</v>
       </c>
       <c r="F41">
-        <v>33.766227722167997</v>
+        <v>34.294044494628899</v>
       </c>
       <c r="G41">
-        <v>1531</v>
+        <v>20852</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,19 +2238,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>54.300003051757798</v>
+        <v>40.800003051757798</v>
       </c>
       <c r="D42">
-        <v>55.100006103515597</v>
+        <v>41.300003051757798</v>
       </c>
       <c r="E42">
-        <v>62.400009155273402</v>
+        <v>40.5</v>
       </c>
       <c r="F42">
-        <v>33.308315277099602</v>
+        <v>33.833927154541001</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2253,19 +2261,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>58.300003051757798</v>
+        <v>43.900009155273402</v>
       </c>
       <c r="D43">
-        <v>59.100006103515597</v>
+        <v>44.400009155273402</v>
       </c>
       <c r="E43">
-        <v>66.400009155273395</v>
+        <v>44</v>
       </c>
       <c r="F43">
-        <v>32.862503051757798</v>
+        <v>33.354213714599602</v>
       </c>
       <c r="G43">
-        <v>18</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2276,19 +2284,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>62.699996948242202</v>
+        <v>47.400009155273402</v>
       </c>
       <c r="D44">
-        <v>63.5</v>
+        <v>47.900009155273402</v>
       </c>
       <c r="E44">
-        <v>71.900009155273395</v>
+        <v>48.5</v>
       </c>
       <c r="F44">
-        <v>32.446460723877003</v>
+        <v>32.921031951904297</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>954</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2299,19 +2307,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>67.300003051757798</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>68.100006103515597</v>
+        <v>51.600006103515597</v>
       </c>
       <c r="E45">
-        <v>67.100006103515597</v>
+        <v>51.100006103515597</v>
       </c>
       <c r="F45">
-        <v>32.009140014648402</v>
+        <v>32.461002349853501</v>
       </c>
       <c r="G45">
-        <v>8913</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2322,19 +2330,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>72.300003051757798</v>
+        <v>55.100006103515597</v>
       </c>
       <c r="D46">
-        <v>73.100006103515597</v>
+        <v>55.699996948242202</v>
       </c>
       <c r="E46">
-        <v>74.699996948242202</v>
+        <v>54.800003051757798</v>
       </c>
       <c r="F46">
-        <v>31.591228485107401</v>
+        <v>32.051883697509801</v>
       </c>
       <c r="G46">
-        <v>355</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,19 +2353,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>77.600006103515597</v>
+        <v>59.400009155273402</v>
       </c>
       <c r="D47">
-        <v>78.5</v>
+        <v>60.100006103515597</v>
       </c>
       <c r="E47">
-        <v>77.199996948242202</v>
+        <v>59.400009155273402</v>
       </c>
       <c r="F47">
-        <v>31.171453475952099</v>
+        <v>31.621669769287099</v>
       </c>
       <c r="G47">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,19 +2376,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>83.300003051757798</v>
+        <v>64.199996948242202</v>
       </c>
       <c r="D48">
-        <v>84.199996948242202</v>
+        <v>64.800003051757798</v>
       </c>
       <c r="E48">
-        <v>90.5</v>
+        <v>63.199996948242202</v>
       </c>
       <c r="F48">
-        <v>30.755815505981399</v>
+        <v>31.2164192199707</v>
       </c>
       <c r="G48">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2391,19 +2399,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>89.400009155273395</v>
+        <v>69.300003051757798</v>
       </c>
       <c r="D49">
-        <v>90.300003051757798</v>
+        <v>69.900009155273395</v>
       </c>
       <c r="E49">
-        <v>98</v>
+        <v>69.300003051757798</v>
       </c>
       <c r="F49">
-        <v>30.344978332519499</v>
+        <v>30.813543319702099</v>
       </c>
       <c r="G49">
-        <v>6278</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2414,19 +2422,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>95.900009155273395</v>
+        <v>74.600006103515597</v>
       </c>
       <c r="D50">
-        <v>96.800003051757798</v>
+        <v>75.400009155273395</v>
       </c>
       <c r="E50">
-        <v>100.300003051758</v>
+        <v>75.100006103515597</v>
       </c>
       <c r="F50">
-        <v>29.934635162353501</v>
+        <v>30.3978881835938</v>
       </c>
       <c r="G50">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2437,19 +2445,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>102.800003051758</v>
+        <v>80.600006103515597</v>
       </c>
       <c r="D51">
-        <v>103.800003051758</v>
+        <v>81.300003051757798</v>
       </c>
       <c r="E51">
-        <v>110.400009155273</v>
+        <v>80</v>
       </c>
       <c r="F51">
-        <v>29.5299968719482</v>
+        <v>30.0169181823731</v>
       </c>
       <c r="G51">
-        <v>228</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,19 +2468,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>110.199996948242</v>
+        <v>86.900009155273395</v>
       </c>
       <c r="D52">
-        <v>111.199996948242</v>
+        <v>87.600006103515597</v>
       </c>
       <c r="E52">
-        <v>117.300003051758</v>
+        <v>87.900009155273395</v>
       </c>
       <c r="F52">
-        <v>29.1268100738525</v>
+        <v>29.623750686645501</v>
       </c>
       <c r="G52">
-        <v>327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2483,19 +2491,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>118</v>
+        <v>93.5</v>
       </c>
       <c r="D53">
-        <v>119.10000610351599</v>
+        <v>94.400009155273395</v>
       </c>
       <c r="E53">
-        <v>118.5</v>
+        <v>94.600006103515597</v>
       </c>
       <c r="F53">
-        <v>28.7211818695068</v>
+        <v>29.224674224853501</v>
       </c>
       <c r="G53">
-        <v>11619</v>
+        <v>14441</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2506,19 +2514,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>126.400009155273</v>
+        <v>100.699996948242</v>
       </c>
       <c r="D54">
-        <v>127.5</v>
+        <v>101.699996948242</v>
       </c>
       <c r="E54">
-        <v>132</v>
+        <v>100.900009155273</v>
       </c>
       <c r="F54">
-        <v>28.326622009277301</v>
+        <v>28.843744277954102</v>
       </c>
       <c r="G54">
-        <v>1272</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2529,19 +2537,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>135.30000305175801</v>
+        <v>108.60000610351599</v>
       </c>
       <c r="D55">
-        <v>136.39999389648401</v>
+        <v>109.400009155273</v>
       </c>
       <c r="E55">
-        <v>135</v>
+        <v>108.60000610351599</v>
       </c>
       <c r="F55">
-        <v>27.932491302490199</v>
+        <v>28.475437164306602</v>
       </c>
       <c r="G55">
-        <v>6978</v>
+        <v>682</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,19 +2560,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>144.69999694824199</v>
+        <v>116.800003051758</v>
       </c>
       <c r="D56">
-        <v>145.89999389648401</v>
+        <v>117.699996948242</v>
       </c>
       <c r="E56">
-        <v>156.69999694824199</v>
+        <v>116.900009155273</v>
       </c>
       <c r="F56">
-        <v>27.536668777465799</v>
+        <v>28.097063064575199</v>
       </c>
       <c r="G56">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,19 +2583,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>154.80000305175801</v>
+        <v>125.60000610351599</v>
       </c>
       <c r="D57">
-        <v>155.89999389648401</v>
+        <v>126.5</v>
       </c>
       <c r="E57">
-        <v>163.19999694824199</v>
+        <v>126.60000610351599</v>
       </c>
       <c r="F57">
-        <v>27.152301788330099</v>
+        <v>27.724336624145501</v>
       </c>
       <c r="G57">
-        <v>13385</v>
+        <v>15921</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2598,19 +2606,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>165.39999389648401</v>
+        <v>134.80000305175801</v>
       </c>
       <c r="D58">
-        <v>166.60000610351599</v>
+        <v>136</v>
       </c>
       <c r="E58">
-        <v>171.89999389648401</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>26.771360397338899</v>
+        <v>27.347185134887699</v>
       </c>
       <c r="G58">
-        <v>509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2621,19 +2629,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>176.60000610351599</v>
+        <v>144.80000305175801</v>
       </c>
       <c r="D59">
-        <v>177.89999389648401</v>
+        <v>146</v>
       </c>
       <c r="E59">
-        <v>186.5</v>
+        <v>145.10000610351599</v>
       </c>
       <c r="F59">
-        <v>26.391147613525401</v>
+        <v>26.987026214599599</v>
       </c>
       <c r="G59">
-        <v>1654</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,19 +2652,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>188.5</v>
+        <v>155.39999389648401</v>
       </c>
       <c r="D60">
-        <v>189.89999389648401</v>
+        <v>156.60000610351599</v>
       </c>
       <c r="E60">
-        <v>202.60000610351599</v>
+        <v>135.30000305175801</v>
       </c>
       <c r="F60">
-        <v>26.025592803955099</v>
+        <v>26.6269130706787</v>
       </c>
       <c r="G60">
-        <v>527</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2667,19 +2675,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>201.10000610351599</v>
+        <v>166.69999694824199</v>
       </c>
       <c r="D61">
-        <v>202.60000610351599</v>
+        <v>168</v>
       </c>
       <c r="E61">
-        <v>200.80000305175801</v>
+        <v>168</v>
       </c>
       <c r="F61">
-        <v>25.672426223754901</v>
+        <v>26.2894897460938</v>
       </c>
       <c r="G61">
-        <v>3352</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,19 +2698,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>214.30000305175801</v>
+        <v>178.60000610351599</v>
       </c>
       <c r="D62">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>160.10000610351599</v>
       </c>
       <c r="F62">
-        <v>25.3213195800781</v>
+        <v>25.9466438293457</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,19 +2721,19 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>228.19999694824199</v>
+        <v>191.19999694824199</v>
       </c>
       <c r="D63">
-        <v>230</v>
+        <v>192.69999694824199</v>
       </c>
       <c r="E63">
-        <v>240.10000610351599</v>
+        <v>180</v>
       </c>
       <c r="F63">
-        <v>24.970323562622099</v>
+        <v>25.613092422485401</v>
       </c>
       <c r="G63">
-        <v>6250</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,19 +2744,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>242.80000305175801</v>
+        <v>204.5</v>
       </c>
       <c r="D64">
-        <v>244.80000305175801</v>
+        <v>206.19999694824199</v>
       </c>
       <c r="E64">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F64">
-        <v>24.6355381011963</v>
+        <v>25.2956027984619</v>
       </c>
       <c r="G64">
-        <v>1280</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,19 +2767,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>258.199951171875</v>
+        <v>218.60000610351599</v>
       </c>
       <c r="D65">
-        <v>260.39990234375</v>
+        <v>220.39999389648401</v>
       </c>
       <c r="E65">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="F65">
-        <v>24.326503753662099</v>
+        <v>24.994146347045898</v>
       </c>
       <c r="G65">
-        <v>19817</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,19 +2790,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>274.39990234375</v>
+        <v>233.60000610351599</v>
       </c>
       <c r="D66">
-        <v>276.60009765625</v>
+        <v>235.30000305175801</v>
       </c>
       <c r="E66">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>24.0270595550537</v>
+        <v>24.714601516723601</v>
       </c>
       <c r="G66">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2805,19 +2813,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>291.199951171875</v>
+        <v>248.89999389648401</v>
       </c>
       <c r="D67">
-        <v>293.60009765625</v>
+        <v>250.89999389648401</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="F67">
-        <v>23.7391166687012</v>
+        <v>24.406312942504901</v>
       </c>
       <c r="G67">
-        <v>515</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,16 +2836,16 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>308.800048828125</v>
+        <v>265.300048828125</v>
       </c>
       <c r="D68">
-        <v>311.199951171875</v>
+        <v>267.300048828125</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>23.4658908843994</v>
+        <v>24.152135848998999</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2851,19 +2859,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>327</v>
+        <v>282.300048828125</v>
       </c>
       <c r="D69">
-        <v>329.60009765625</v>
+        <v>284.5</v>
       </c>
       <c r="E69">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>23.212265014648398</v>
+        <v>23.909654617309599</v>
       </c>
       <c r="G69">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2874,16 +2882,16 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>345.89990234375</v>
+        <v>300</v>
       </c>
       <c r="D70">
-        <v>348.60009765625</v>
+        <v>302.300048828125</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>22.9731540679932</v>
+        <v>23.6725749969482</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2897,19 +2905,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>365.5</v>
+        <v>318.39990234375</v>
       </c>
       <c r="D71">
-        <v>368.199951171875</v>
+        <v>320.800048828125</v>
       </c>
       <c r="E71">
-        <v>404</v>
+        <v>281.89990234375</v>
       </c>
       <c r="F71">
-        <v>22.7562255859375</v>
+        <v>23.4576930999756</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,16 +2928,16 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>385.60009765625</v>
+        <v>337.5</v>
       </c>
       <c r="D72">
-        <v>388.39990234375</v>
+        <v>340</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>22.551317214965799</v>
+        <v>23.265600204467798</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2943,19 +2951,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>406.300048828125</v>
+        <v>357.199951171875</v>
       </c>
       <c r="D73">
-        <v>409.199951171875</v>
+        <v>359.800048828125</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="F73">
-        <v>22.377630233764599</v>
+        <v>23.094831466674801</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,16 +2974,16 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>427.60009765625</v>
+        <v>377.5</v>
       </c>
       <c r="D74">
-        <v>430.5</v>
+        <v>380.10009765625</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>22.230838775634801</v>
+        <v>22.9324626922607</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2989,16 +2997,16 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>449.300048828125</v>
+        <v>398.300048828125</v>
       </c>
       <c r="D75">
-        <v>452.300048828125</v>
+        <v>401.10009765625</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>22.102634429931602</v>
+        <v>22.807683944702099</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3012,16 +3020,16 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>471.39990234375</v>
+        <v>419.699951171875</v>
       </c>
       <c r="D76">
-        <v>474.5</v>
+        <v>422.5</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>21.986589431762699</v>
+        <v>22.704168319702099</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3035,19 +3043,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>494</v>
+        <v>441.5</v>
       </c>
       <c r="D77">
-        <v>497.10009765625</v>
+        <v>444.39990234375</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>21.9225349426269</v>
+        <v>22.621881484985401</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3058,16 +3066,16 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>516.800048828125</v>
+        <v>463.800048828125</v>
       </c>
       <c r="D78">
-        <v>520</v>
+        <v>466.699951171875</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>21.8444938659668</v>
+        <v>22.5793781280518</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3081,19 +3089,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>540</v>
+        <v>486.39990234375</v>
       </c>
       <c r="D79">
-        <v>543.199951171875</v>
+        <v>489.39990234375</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="F79">
-        <v>21.812892913818398</v>
+        <v>22.553371429443398</v>
       </c>
       <c r="G79">
-        <v>467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,16 +3112,16 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>559.89990234375</v>
+        <v>509.300048828125</v>
       </c>
       <c r="D80">
-        <v>570.699951171875</v>
+        <v>512.400146484375</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>21.925529479980501</v>
+        <v>22.541856765747099</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3127,19 +3135,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>583.599853515625</v>
+        <v>532.60009765625</v>
       </c>
       <c r="D81">
-        <v>594.5</v>
+        <v>535.699951171875</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="F81">
-        <v>21.988401412963899</v>
+        <v>22.588605880737301</v>
       </c>
       <c r="G81">
-        <v>467</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3150,16 +3158,16 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>607.39990234375</v>
+        <v>552.199951171875</v>
       </c>
       <c r="D82">
-        <v>618.5</v>
+        <v>563.39990234375</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>22.059095382690401</v>
+        <v>22.7105827331543</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3173,19 +3181,19 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>631.39990234375</v>
+        <v>575.89990234375</v>
       </c>
       <c r="D83">
-        <v>642.599853515625</v>
+        <v>587.099853515625</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="F83">
-        <v>22.1454677581787</v>
+        <v>22.785341262817401</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3196,16 +3204,16 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>655.099853515625</v>
+        <v>599.699951171875</v>
       </c>
       <c r="D84">
-        <v>666.7998046875</v>
+        <v>611.199951171875</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>22.0819816589356</v>
+        <v>22.921331405639599</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3219,16 +3227,16 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>680.89990234375</v>
+        <v>623.7998046875</v>
       </c>
       <c r="D85">
-        <v>691.199951171875</v>
+        <v>635.2998046875</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>22.8147678375244</v>
+        <v>23.0840034484863</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3242,16 +3250,16 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>704.89990234375</v>
+        <v>648.5</v>
       </c>
       <c r="D86">
-        <v>715.599853515625</v>
+        <v>659.5</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>22.842819213867202</v>
+        <v>23.416591644287099</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3265,16 +3273,16 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>728.39990234375</v>
+        <v>663.199951171875</v>
       </c>
       <c r="D87">
-        <v>740.199951171875</v>
+        <v>683.7998046875</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>22.6529636383057</v>
+        <v>18.386508941650401</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3288,16 +3296,16 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>755</v>
+        <v>687.60009765625</v>
       </c>
       <c r="D88">
-        <v>764.7998046875</v>
+        <v>708.5</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>23.8213920593262</v>
+        <v>18.0000190734863</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3311,16 +3319,16 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>777</v>
+        <v>721.199951171875</v>
       </c>
       <c r="D89">
-        <v>789.39990234375</v>
+        <v>732.699951171875</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>22.753330230712901</v>
+        <v>23.871301651001001</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3334,16 +3342,16 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>801.599853515625</v>
+        <v>749.699951171875</v>
       </c>
       <c r="D90">
-        <v>814.099853515625</v>
+        <v>757.2998046875</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>22.9444179534912</v>
+        <v>25.7688694000244</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3357,16 +3365,16 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>826.2998046875</v>
+        <v>774.2998046875</v>
       </c>
       <c r="D91">
-        <v>838.7998046875</v>
+        <v>782.199951171875</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>23.163337707519499</v>
+        <v>26.240964889526399</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3380,16 +3388,16 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>851.099853515625</v>
+        <v>799</v>
       </c>
       <c r="D92">
-        <v>863.5</v>
+        <v>806.5</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>23.413639068603501</v>
+        <v>26.493461608886701</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3403,16 +3411,16 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>875.7998046875</v>
+        <v>823.599853515625</v>
       </c>
       <c r="D93">
-        <v>888.2998046875</v>
+        <v>831.199951171875</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>23.643154144287099</v>
+        <v>26.8424587249756</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3426,19 +3434,19 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>900.599853515625</v>
+        <v>846.39990234375</v>
       </c>
       <c r="D94">
-        <v>913.099853515625</v>
+        <v>855.89990234375</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="F94">
-        <v>23.919900894165</v>
+        <v>26.3141479492188</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,16 +3457,16 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>925.5</v>
+        <v>870.7998046875</v>
       </c>
       <c r="D95">
-        <v>938</v>
+        <v>880.89990234375</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>24.347084045410199</v>
+        <v>26.623456954956101</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3472,16 +3480,16 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>950.2998046875</v>
+        <v>896</v>
       </c>
       <c r="D96">
-        <v>962.7998046875</v>
+        <v>905.39990234375</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>24.589729309081999</v>
+        <v>27.075645446777301</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3495,16 +3503,16 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>975.199951171875</v>
+        <v>920.7998046875</v>
       </c>
       <c r="D97">
-        <v>987.699951171875</v>
+        <v>930.199951171875</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>24.997877120971701</v>
+        <v>27.460168838501001</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3518,16 +3526,16 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>1000.09985351563</v>
+        <v>945.599853515625</v>
       </c>
       <c r="D98">
-        <v>1012.5</v>
+        <v>955</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>25.301799774169901</v>
+        <v>27.8350429534912</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3541,16 +3549,16 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1024.89990234375</v>
+        <v>970.39990234375</v>
       </c>
       <c r="D99">
-        <v>1037.39990234375</v>
+        <v>979.7998046875</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>25.5892429351807</v>
+        <v>28.1932678222656</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3564,16 +3572,16 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>1049.80004882813</v>
+        <v>995.199951171875</v>
       </c>
       <c r="D100">
-        <v>1062.30004882813</v>
+        <v>1004.69995117188</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>25.9713954925537</v>
+        <v>28.601167678833001</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3587,16 +3595,16 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>1074.69995117188</v>
+        <v>1020.09985351563</v>
       </c>
       <c r="D101">
-        <v>1087.19995117188</v>
+        <v>1029.5</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>26.343389511108398</v>
+        <v>28.9990539550781</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3610,16 +3618,16 @@
         <v>107</v>
       </c>
       <c r="C102">
-        <v>1099.69995117188</v>
+        <v>1045</v>
       </c>
       <c r="D102">
-        <v>1112.09985351563</v>
+        <v>1054.39990234375</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>26.822401046752901</v>
+        <v>29.4549369812012</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3633,16 +3641,16 @@
         <v>108</v>
       </c>
       <c r="C103">
-        <v>1124.59985351563</v>
+        <v>1069.89990234375</v>
       </c>
       <c r="D103">
-        <v>1137.09985351563</v>
+        <v>1079.30004882813</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>27.292860031127901</v>
+        <v>29.9018459320068</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3656,16 +3664,16 @@
         <v>109</v>
       </c>
       <c r="C104">
-        <v>1149.5</v>
+        <v>1094.39990234375</v>
       </c>
       <c r="D104">
-        <v>1162</v>
+        <v>1104.39990234375</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>27.650445938110401</v>
+        <v>30.202011108398398</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3679,16 +3687,16 @@
         <v>110</v>
       </c>
       <c r="C105">
-        <v>1174.39990234375</v>
+        <v>1119.59985351563</v>
       </c>
       <c r="D105">
-        <v>1186.89990234375</v>
+        <v>1129</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>28.000411987304702</v>
+        <v>30.6332092285156</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3702,16 +3710,16 @@
         <v>111</v>
       </c>
       <c r="C106">
-        <v>1199.30004882813</v>
+        <v>1144.5</v>
       </c>
       <c r="D106">
-        <v>1211.80004882813</v>
+        <v>1153.89990234375</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>28.344314575195298</v>
+        <v>31.061098098754901</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3725,16 +3733,16 @@
         <v>112</v>
       </c>
       <c r="C107">
-        <v>1224.30004882813</v>
+        <v>1169.5</v>
       </c>
       <c r="D107">
-        <v>1236.80004882813</v>
+        <v>1178.89990234375</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>28.921586990356399</v>
+        <v>31.631769180297901</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3748,16 +3756,16 @@
         <v>113</v>
       </c>
       <c r="C108">
-        <v>1249.19995117188</v>
+        <v>1194.39990234375</v>
       </c>
       <c r="D108">
-        <v>1261.69995117188</v>
+        <v>1203.69995117188</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>29.255821228027301</v>
+        <v>31.972457885742202</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3771,16 +3779,16 @@
         <v>114</v>
       </c>
       <c r="C109">
-        <v>1274.09985351563</v>
+        <v>1218.89990234375</v>
       </c>
       <c r="D109">
-        <v>1286.59985351563</v>
+        <v>1228.89990234375</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>29.585777282714801</v>
+        <v>32.301975250244098</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3794,16 +3802,16 @@
         <v>115</v>
       </c>
       <c r="C110">
-        <v>1299.09985351563</v>
+        <v>1244.19995117188</v>
       </c>
       <c r="D110">
-        <v>1311.59985351563</v>
+        <v>1253.59985351563</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>30.159603118896499</v>
+        <v>32.863563537597699</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3817,16 +3825,16 @@
         <v>116</v>
       </c>
       <c r="C111">
-        <v>1324</v>
+        <v>1268.69995117188</v>
       </c>
       <c r="D111">
-        <v>1336.5</v>
+        <v>1278.80004882813</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>30.4817504882813</v>
+        <v>33.183120727539098</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3840,16 +3848,16 @@
         <v>117</v>
       </c>
       <c r="C112">
-        <v>1348.89990234375</v>
+        <v>1294.09985351563</v>
       </c>
       <c r="D112">
-        <v>1361.5</v>
+        <v>1303.39990234375</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>30.9249572753906</v>
+        <v>33.737922668457003</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3863,16 +3871,16 @@
         <v>118</v>
       </c>
       <c r="C113">
-        <v>1373.89990234375</v>
+        <v>1319</v>
       </c>
       <c r="D113">
-        <v>1386.39990234375</v>
+        <v>1328.39990234375</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>31.364894866943398</v>
+        <v>34.210029602050803</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3886,16 +3894,16 @@
         <v>119</v>
       </c>
       <c r="C114">
-        <v>1398.80004882813</v>
+        <v>1343.89990234375</v>
       </c>
       <c r="D114">
-        <v>1411.30004882813</v>
+        <v>1353.30004882813</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>31.6761970520019</v>
+        <v>34.594223022460902</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3909,16 +3917,16 @@
         <v>120</v>
       </c>
       <c r="C115">
-        <v>1423.69995117188</v>
+        <v>1368.89990234375</v>
       </c>
       <c r="D115">
-        <v>1436.30004882813</v>
+        <v>1378.19995117188</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>32.110027313232401</v>
+        <v>35.057518005371101</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3932,16 +3940,16 @@
         <v>121</v>
       </c>
       <c r="C116">
-        <v>1448.69995117188</v>
+        <v>1393.80004882813</v>
       </c>
       <c r="D116">
-        <v>1461.19995117188</v>
+        <v>1403.19995117188</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>32.543903350830099</v>
+        <v>35.521865844726598</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3955,16 +3963,16 @@
         <v>122</v>
       </c>
       <c r="C117">
-        <v>1473.59985351563</v>
+        <v>1418.69995117188</v>
       </c>
       <c r="D117">
-        <v>1486.19995117188</v>
+        <v>1428.09985351563</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>32.973167419433601</v>
+        <v>35.890327453613303</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3978,16 +3986,16 @@
         <v>123</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1468.59985351563</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>36.794998168945298</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4001,10 +4009,10 @@
         <v>124</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1504.69995117188</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4036,6 +4044,52 @@
         <v>0</v>
       </c>
       <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5000</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5050</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
         <v>0</v>
       </c>
     </row>
